--- a/one/EXCEL/PR. 2 Analyzer.xlsx
+++ b/one/EXCEL/PR. 2 Analyzer.xlsx
@@ -20,7 +20,7 @@
     <definedName name="Slicer_Month_Year1">#N/A</definedName>
     <definedName name="Slicer_Month_Year">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="1" iterateDelta="0.001"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
@@ -2085,19 +2085,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7685.16</c:v>
+                  <c:v>43468.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4646.71</c:v>
+                  <c:v>32441.64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7820.03</c:v>
+                  <c:v>34975.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11392.59</c:v>
+                  <c:v>40248.79</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9176.52</c:v>
+                  <c:v>44083.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2450,7 +2450,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'Monthly sales and profit'!$A$4:$B$28</c:f>
+              <c:f>'Monthly sales and profit'!$A$4:$B$27</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="12"/>
                 <c:lvl>
@@ -2483,9 +2483,6 @@
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>14914.65</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>14006.36</c:v>
                   </c:pt>
                   <c:pt idx="11">
                     <c:v>17655.22</c:v>
@@ -2534,7 +2531,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Monthly sales and profit'!$C$4:$C$28</c:f>
+              <c:f>'Monthly sales and profit'!$C$4:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3027,19 +3024,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5157.04</c:v>
+                  <c:v>47002.46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2586.98</c:v>
+                  <c:v>41927.59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4214.03</c:v>
+                  <c:v>41044</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4420.07</c:v>
+                  <c:v>36612.89</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3809.39</c:v>
+                  <c:v>28630.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5203,7 +5200,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Sales" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="258.51" maxValue="1923.66" count="200">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1923.66" count="200">
         <n v="1036.09"/>
         <n v="1101.28"/>
         <n v="713.34"/>
@@ -5407,7 +5404,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Quantity" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="19" count="19">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="19" count="19">
         <n v="4"/>
         <n v="3"/>
         <n v="17"/>
@@ -5606,7 +5603,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Total Sales per Month" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="10091.7" maxValue="22242.13" count="12">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="22242.13" count="12">
         <n v="22242.13"/>
         <n v="18507.34"/>
         <n v="20187.51"/>
@@ -5644,7 +5641,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Cost" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="193.88" maxValue="1344.97" count="200">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1344.97" count="200">
         <n v="705.09"/>
         <n v="660.77"/>
         <n v="428"/>
@@ -5848,7 +5845,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Profit" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="64.63" maxValue="769.46" count="200">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="769.46" count="200">
         <n v="331"/>
         <n v="440.51"/>
         <n v="285.34"/>
@@ -6052,7 +6049,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="profit after dis" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="64.63" maxValue="769.46" count="200">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="769.46" count="200">
         <n v="314.45"/>
         <n v="396.459"/>
         <n v="285.34"/>
@@ -10153,18 +10150,18 @@
     </pivotField>
     <pivotField compact="0" showAll="0">
       <items count="13">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
+        <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
+        <item x="3"/>
+        <item x="4"/>
         <item x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -11347,18 +11344,18 @@
     </pivotField>
     <pivotField compact="0" showAll="0">
       <items count="13">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
+        <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -12059,7 +12056,7 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" createdVersion="5" useAutoFormatting="1" compact="0" indent="0" outline="1" compactData="0" outlineData="1" showDrill="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A3:C28" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
+  <location ref="A3:C27" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="15">
     <pivotField compact="0" showAll="0">
       <items count="31">
@@ -12551,7 +12548,7 @@
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
-        <item x="10"/>
+        <item sd="0" x="10"/>
         <item x="11"/>
         <item t="default"/>
       </items>
@@ -13217,7 +13214,7 @@
     <field x="8"/>
     <field x="9"/>
   </rowFields>
-  <rowItems count="25">
+  <rowItems count="24">
     <i>
       <x/>
     </i>
@@ -13281,9 +13278,6 @@
     <i>
       <x v="10"/>
     </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
     <i>
       <x v="11"/>
     </i>
@@ -13344,18 +13338,18 @@
   <data>
     <tabular pivotCacheId="1">
       <items count="12">
-        <i x="9" s="0"/>
-        <i x="10" s="0"/>
-        <i x="11" s="0"/>
-        <i x="0" s="0"/>
-        <i x="1" s="0"/>
+        <i x="9" s="1"/>
+        <i x="10" s="1"/>
+        <i x="11" s="1"/>
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
         <i x="2" s="1"/>
-        <i x="3" s="0"/>
-        <i x="4" s="0"/>
-        <i x="5" s="0"/>
-        <i x="6" s="0"/>
-        <i x="7" s="0"/>
-        <i x="8" s="0"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
+        <i x="5" s="1"/>
+        <i x="6" s="1"/>
+        <i x="7" s="1"/>
+        <i x="8" s="1"/>
       </items>
     </tabular>
   </data>
@@ -13371,18 +13365,18 @@
   <data>
     <tabular pivotCacheId="1">
       <items count="12">
-        <i x="9" s="0"/>
-        <i x="10" s="0"/>
-        <i x="11" s="0"/>
-        <i x="0" s="0"/>
-        <i x="1" s="0"/>
+        <i x="9" s="1"/>
+        <i x="10" s="1"/>
+        <i x="11" s="1"/>
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
         <i x="2" s="1"/>
-        <i x="3" s="0"/>
-        <i x="4" s="0"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
         <i x="5" s="1"/>
-        <i x="6" s="0"/>
-        <i x="7" s="0"/>
-        <i x="8" s="0"/>
+        <i x="6" s="1"/>
+        <i x="7" s="1"/>
+        <i x="8" s="1"/>
       </items>
     </tabular>
   </data>
@@ -13773,17 +13767,6 @@
           <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:duotone>
-              <a:schemeClr val="phClr">
-                <a:shade val="6000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-              <a:schemeClr val="phClr">
-                <a:tint val="90000"/>
-              </a:schemeClr>
-            </a:duotone>
-          </a:blip>
           <a:tile tx="0" ty="0" sx="35000" sy="40000" flip="x" algn="tl"/>
         </a:blipFill>
       </a:bgFillStyleLst>
@@ -39719,7 +39702,7 @@
   <sheetPr/>
   <dimension ref="A1:BI67"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:BI67"/>
     </sheetView>
   </sheetViews>
@@ -43970,7 +43953,7 @@
   <dimension ref="A1:AE1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="18" customHeight="1"/>
@@ -44104,7 +44087,7 @@
       </c>
       <c r="L2" s="11">
         <f ca="1">NOW()</f>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M2" s="8">
         <v>705.09</v>
@@ -44158,7 +44141,7 @@
       </c>
       <c r="L3" s="11">
         <f ca="1" t="shared" ref="L3:L12" si="4">NOW()</f>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M3">
         <v>660.77</v>
@@ -44212,7 +44195,7 @@
       </c>
       <c r="L4" s="11">
         <f ca="1" t="shared" si="4"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M4">
         <v>428</v>
@@ -44272,7 +44255,7 @@
       </c>
       <c r="L5" s="11">
         <f ca="1" t="shared" si="4"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M5">
         <v>599.23</v>
@@ -44332,7 +44315,7 @@
       </c>
       <c r="L6" s="11">
         <f ca="1" t="shared" si="4"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M6">
         <v>575.96</v>
@@ -44392,7 +44375,7 @@
       </c>
       <c r="L7" s="11">
         <f ca="1" t="shared" si="4"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M7">
         <v>661.46</v>
@@ -44452,7 +44435,7 @@
       </c>
       <c r="L8" s="11">
         <f ca="1" t="shared" si="4"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M8">
         <v>1004.62</v>
@@ -44520,7 +44503,7 @@
       </c>
       <c r="L9" s="11">
         <f ca="1" t="shared" si="4"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M9">
         <v>773.62</v>
@@ -44588,7 +44571,7 @@
       </c>
       <c r="L10" s="11">
         <f ca="1" t="shared" si="4"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M10">
         <v>310.95</v>
@@ -44649,7 +44632,7 @@
       </c>
       <c r="L11" s="11">
         <f ca="1" t="shared" si="4"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M11">
         <v>387.09</v>
@@ -44710,7 +44693,7 @@
       </c>
       <c r="L12" s="11">
         <f ca="1" t="shared" si="4"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M12">
         <v>900.44</v>
@@ -44775,7 +44758,7 @@
       </c>
       <c r="L13" s="11">
         <f ca="1" t="shared" ref="L13:L22" si="7">NOW()</f>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M13">
         <v>886.47</v>
@@ -44844,7 +44827,7 @@
       </c>
       <c r="L14" s="11">
         <f ca="1" t="shared" si="7"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M14">
         <v>738.78</v>
@@ -44905,7 +44888,7 @@
       </c>
       <c r="L15" s="11">
         <f ca="1" t="shared" si="7"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M15">
         <v>548.87</v>
@@ -44966,7 +44949,7 @@
       </c>
       <c r="L16" s="11">
         <f ca="1" t="shared" si="7"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M16">
         <v>366.47</v>
@@ -45024,7 +45007,7 @@
       </c>
       <c r="L17" s="11">
         <f ca="1" t="shared" si="7"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M17">
         <v>1202.34</v>
@@ -45078,7 +45061,7 @@
       </c>
       <c r="L18" s="11">
         <f ca="1" t="shared" si="7"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M18">
         <v>579.2</v>
@@ -45132,7 +45115,7 @@
       </c>
       <c r="L19" s="11">
         <f ca="1" t="shared" si="7"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M19">
         <v>432.96</v>
@@ -45190,7 +45173,7 @@
       </c>
       <c r="L20" s="11">
         <f ca="1" t="shared" si="7"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M20">
         <v>1024.18</v>
@@ -45250,7 +45233,7 @@
       </c>
       <c r="L21" s="11">
         <f ca="1" t="shared" si="7"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M21">
         <v>483.76</v>
@@ -45311,7 +45294,7 @@
       </c>
       <c r="L22" s="11">
         <f ca="1" t="shared" si="7"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M22">
         <v>476.65</v>
@@ -45372,7 +45355,7 @@
       </c>
       <c r="L23" s="11">
         <f ca="1" t="shared" ref="L23:L32" si="9">NOW()</f>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M23">
         <v>305.99</v>
@@ -45433,7 +45416,7 @@
       </c>
       <c r="L24" s="11">
         <f ca="1" t="shared" si="9"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M24">
         <v>445.9</v>
@@ -45494,7 +45477,7 @@
       </c>
       <c r="L25" s="11">
         <f ca="1" t="shared" si="9"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M25">
         <v>529.78</v>
@@ -45555,7 +45538,7 @@
       </c>
       <c r="L26" s="11">
         <f ca="1" t="shared" si="9"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M26">
         <v>550.56</v>
@@ -45616,7 +45599,7 @@
       </c>
       <c r="L27" s="11">
         <f ca="1" t="shared" si="9"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M27">
         <v>879.84</v>
@@ -45677,7 +45660,7 @@
       </c>
       <c r="L28" s="11">
         <f ca="1" t="shared" si="9"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M28">
         <v>439.1</v>
@@ -45738,7 +45721,7 @@
       </c>
       <c r="L29" s="11">
         <f ca="1" t="shared" si="9"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M29">
         <v>582.24</v>
@@ -45799,7 +45782,7 @@
       </c>
       <c r="L30" s="11">
         <f ca="1" t="shared" si="9"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M30">
         <v>585.09</v>
@@ -45853,7 +45836,7 @@
       </c>
       <c r="L31" s="11">
         <f ca="1" t="shared" si="9"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M31">
         <v>640.97</v>
@@ -45907,7 +45890,7 @@
       </c>
       <c r="L32" s="11">
         <f ca="1" t="shared" si="9"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M32">
         <v>1124.3</v>
@@ -45961,7 +45944,7 @@
       </c>
       <c r="L33" s="11">
         <f ca="1" t="shared" ref="L33:L42" si="10">NOW()</f>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M33">
         <v>634.39</v>
@@ -46015,7 +45998,7 @@
       </c>
       <c r="L34" s="11">
         <f ca="1" t="shared" si="10"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M34">
         <v>599.74</v>
@@ -46069,7 +46052,7 @@
       </c>
       <c r="L35" s="11">
         <f ca="1" t="shared" si="10"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M35">
         <v>750.11</v>
@@ -46123,7 +46106,7 @@
       </c>
       <c r="L36" s="11">
         <f ca="1" t="shared" si="10"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M36">
         <v>687.52</v>
@@ -46177,7 +46160,7 @@
       </c>
       <c r="L37" s="11">
         <f ca="1" t="shared" si="10"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M37">
         <v>321.22</v>
@@ -46231,7 +46214,7 @@
       </c>
       <c r="L38" s="11">
         <f ca="1" t="shared" si="10"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M38">
         <v>481.43</v>
@@ -46285,7 +46268,7 @@
       </c>
       <c r="L39" s="11">
         <f ca="1" t="shared" si="10"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M39">
         <v>941.22</v>
@@ -46339,7 +46322,7 @@
       </c>
       <c r="L40" s="11">
         <f ca="1" t="shared" si="10"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M40">
         <v>543.1</v>
@@ -46393,7 +46376,7 @@
       </c>
       <c r="L41" s="11">
         <f ca="1" t="shared" si="10"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M41">
         <v>383.08</v>
@@ -46447,7 +46430,7 @@
       </c>
       <c r="L42" s="11">
         <f ca="1" t="shared" si="10"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M42">
         <v>736.77</v>
@@ -46501,7 +46484,7 @@
       </c>
       <c r="L43" s="11">
         <f ca="1" t="shared" ref="L43:L52" si="17">NOW()</f>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M43">
         <v>656.63</v>
@@ -46555,7 +46538,7 @@
       </c>
       <c r="L44" s="11">
         <f ca="1" t="shared" si="17"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M44">
         <v>343.59</v>
@@ -46609,7 +46592,7 @@
       </c>
       <c r="L45" s="11">
         <f ca="1" t="shared" si="17"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M45">
         <v>538.14</v>
@@ -46663,7 +46646,7 @@
       </c>
       <c r="L46" s="11">
         <f ca="1" t="shared" si="17"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M46">
         <v>862.14</v>
@@ -46717,7 +46700,7 @@
       </c>
       <c r="L47" s="11">
         <f ca="1" t="shared" si="17"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M47">
         <v>642.52</v>
@@ -46771,7 +46754,7 @@
       </c>
       <c r="L48" s="11">
         <f ca="1" t="shared" si="17"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M48">
         <v>756.7</v>
@@ -46825,7 +46808,7 @@
       </c>
       <c r="L49" s="11">
         <f ca="1" t="shared" si="17"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M49">
         <v>550.86</v>
@@ -46879,7 +46862,7 @@
       </c>
       <c r="L50" s="11">
         <f ca="1" t="shared" si="17"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M50">
         <v>854.53</v>
@@ -46933,7 +46916,7 @@
       </c>
       <c r="L51" s="11">
         <f ca="1" t="shared" si="17"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M51">
         <v>600.97</v>
@@ -46987,7 +46970,7 @@
       </c>
       <c r="L52" s="11">
         <f ca="1" t="shared" si="17"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M52">
         <v>778.87</v>
@@ -47041,7 +47024,7 @@
       </c>
       <c r="L53" s="11">
         <f ca="1" t="shared" ref="L53:L62" si="18">NOW()</f>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M53">
         <v>674.64</v>
@@ -47095,7 +47078,7 @@
       </c>
       <c r="L54" s="11">
         <f ca="1" t="shared" si="18"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M54">
         <v>706.5</v>
@@ -47149,7 +47132,7 @@
       </c>
       <c r="L55" s="11">
         <f ca="1" t="shared" si="18"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M55">
         <v>603.46</v>
@@ -47203,7 +47186,7 @@
       </c>
       <c r="L56" s="11">
         <f ca="1" t="shared" si="18"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M56">
         <v>644.81</v>
@@ -47257,7 +47240,7 @@
       </c>
       <c r="L57" s="11">
         <f ca="1" t="shared" si="18"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M57">
         <v>661.71</v>
@@ -47311,7 +47294,7 @@
       </c>
       <c r="L58" s="11">
         <f ca="1" t="shared" si="18"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M58">
         <v>583.96</v>
@@ -47365,7 +47348,7 @@
       </c>
       <c r="L59" s="11">
         <f ca="1" t="shared" si="18"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M59">
         <v>593.29</v>
@@ -47419,7 +47402,7 @@
       </c>
       <c r="L60" s="11">
         <f ca="1" t="shared" si="18"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M60">
         <v>799.24</v>
@@ -47473,7 +47456,7 @@
       </c>
       <c r="L61" s="11">
         <f ca="1" t="shared" si="18"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M61">
         <v>680.18</v>
@@ -47527,7 +47510,7 @@
       </c>
       <c r="L62" s="11">
         <f ca="1" t="shared" si="18"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M62">
         <v>885.31</v>
@@ -47581,7 +47564,7 @@
       </c>
       <c r="L63" s="11">
         <f ca="1" t="shared" ref="L63:L72" si="19">NOW()</f>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M63">
         <v>268.94</v>
@@ -47635,7 +47618,7 @@
       </c>
       <c r="L64" s="11">
         <f ca="1" t="shared" si="19"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M64">
         <v>639.59</v>
@@ -47689,7 +47672,7 @@
       </c>
       <c r="L65" s="11">
         <f ca="1" t="shared" si="19"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M65">
         <v>804.42</v>
@@ -47743,7 +47726,7 @@
       </c>
       <c r="L66" s="11">
         <f ca="1" t="shared" si="19"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M66">
         <v>838.83</v>
@@ -47797,7 +47780,7 @@
       </c>
       <c r="L67" s="11">
         <f ca="1" t="shared" si="19"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M67">
         <v>726.88</v>
@@ -47851,7 +47834,7 @@
       </c>
       <c r="L68" s="11">
         <f ca="1" t="shared" si="19"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M68">
         <v>543.39</v>
@@ -47905,7 +47888,7 @@
       </c>
       <c r="L69" s="11">
         <f ca="1" t="shared" si="19"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M69">
         <v>915.37</v>
@@ -47959,7 +47942,7 @@
       </c>
       <c r="L70" s="11">
         <f ca="1" t="shared" si="19"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M70">
         <v>777.95</v>
@@ -48013,7 +47996,7 @@
       </c>
       <c r="L71" s="11">
         <f ca="1" t="shared" si="19"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M71">
         <v>460.75</v>
@@ -48067,7 +48050,7 @@
       </c>
       <c r="L72" s="11">
         <f ca="1" t="shared" si="19"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M72">
         <v>464.1</v>
@@ -48121,7 +48104,7 @@
       </c>
       <c r="L73" s="11">
         <f ca="1" t="shared" ref="L73:L82" si="26">NOW()</f>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M73">
         <v>539.66</v>
@@ -48175,7 +48158,7 @@
       </c>
       <c r="L74" s="11">
         <f ca="1" t="shared" si="26"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M74">
         <v>425.07</v>
@@ -48229,7 +48212,7 @@
       </c>
       <c r="L75" s="11">
         <f ca="1" t="shared" si="26"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M75">
         <v>547.03</v>
@@ -48283,7 +48266,7 @@
       </c>
       <c r="L76" s="11">
         <f ca="1" t="shared" si="26"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M76">
         <v>1221.28</v>
@@ -48337,7 +48320,7 @@
       </c>
       <c r="L77" s="11">
         <f ca="1" t="shared" si="26"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M77">
         <v>957.02</v>
@@ -48391,7 +48374,7 @@
       </c>
       <c r="L78" s="11">
         <f ca="1" t="shared" si="26"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M78">
         <v>819.87</v>
@@ -48445,7 +48428,7 @@
       </c>
       <c r="L79" s="11">
         <f ca="1" t="shared" si="26"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M79">
         <v>345.81</v>
@@ -48499,7 +48482,7 @@
       </c>
       <c r="L80" s="11">
         <f ca="1" t="shared" si="26"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M80">
         <v>611.24</v>
@@ -48553,7 +48536,7 @@
       </c>
       <c r="L81" s="11">
         <f ca="1" t="shared" si="26"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M81">
         <v>710.31</v>
@@ -48607,7 +48590,7 @@
       </c>
       <c r="L82" s="11">
         <f ca="1" t="shared" si="26"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M82">
         <v>407.83</v>
@@ -48661,7 +48644,7 @@
       </c>
       <c r="L83" s="11">
         <f ca="1" t="shared" ref="L83:L92" si="27">NOW()</f>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M83">
         <v>743.4</v>
@@ -48715,7 +48698,7 @@
       </c>
       <c r="L84" s="11">
         <f ca="1" t="shared" si="27"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M84">
         <v>612.31</v>
@@ -48769,7 +48752,7 @@
       </c>
       <c r="L85" s="11">
         <f ca="1" t="shared" si="27"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M85">
         <v>663.82</v>
@@ -48823,7 +48806,7 @@
       </c>
       <c r="L86" s="11">
         <f ca="1" t="shared" si="27"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M86">
         <v>642.89</v>
@@ -48877,7 +48860,7 @@
       </c>
       <c r="L87" s="11">
         <f ca="1" t="shared" si="27"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M87">
         <v>1001.9</v>
@@ -48931,7 +48914,7 @@
       </c>
       <c r="L88" s="11">
         <f ca="1" t="shared" si="27"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M88">
         <v>567.9</v>
@@ -48985,7 +48968,7 @@
       </c>
       <c r="L89" s="11">
         <f ca="1" t="shared" si="27"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M89">
         <v>794.19</v>
@@ -49039,7 +49022,7 @@
       </c>
       <c r="L90" s="11">
         <f ca="1" t="shared" si="27"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M90">
         <v>712.8</v>
@@ -49093,7 +49076,7 @@
       </c>
       <c r="L91" s="11">
         <f ca="1" t="shared" si="27"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M91">
         <v>783.98</v>
@@ -49147,7 +49130,7 @@
       </c>
       <c r="L92" s="11">
         <f ca="1" t="shared" si="27"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M92">
         <v>754.56</v>
@@ -49201,7 +49184,7 @@
       </c>
       <c r="L93" s="11">
         <f ca="1" t="shared" ref="L93:L102" si="28">NOW()</f>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M93">
         <v>498.5</v>
@@ -49255,7 +49238,7 @@
       </c>
       <c r="L94" s="11">
         <f ca="1" t="shared" si="28"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M94">
         <v>540.57</v>
@@ -49309,7 +49292,7 @@
       </c>
       <c r="L95" s="11">
         <f ca="1" t="shared" si="28"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M95">
         <v>927.15</v>
@@ -49363,7 +49346,7 @@
       </c>
       <c r="L96" s="11">
         <f ca="1" t="shared" si="28"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M96">
         <v>637.76</v>
@@ -49417,7 +49400,7 @@
       </c>
       <c r="L97" s="11">
         <f ca="1" t="shared" si="28"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M97">
         <v>550.49</v>
@@ -49471,7 +49454,7 @@
       </c>
       <c r="L98" s="11">
         <f ca="1" t="shared" si="28"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M98">
         <v>824.01</v>
@@ -49525,7 +49508,7 @@
       </c>
       <c r="L99" s="11">
         <f ca="1" t="shared" si="28"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M99">
         <v>663.2</v>
@@ -49579,7 +49562,7 @@
       </c>
       <c r="L100" s="11">
         <f ca="1" t="shared" si="28"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M100">
         <v>529.24</v>
@@ -49633,7 +49616,7 @@
       </c>
       <c r="L101" s="11">
         <f ca="1" t="shared" si="28"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M101">
         <v>451.09</v>
@@ -49687,7 +49670,7 @@
       </c>
       <c r="L102" s="11">
         <f ca="1" t="shared" si="28"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M102">
         <v>375.02</v>
@@ -49741,7 +49724,7 @@
       </c>
       <c r="L103" s="11">
         <f ca="1" t="shared" ref="L103:L112" si="35">NOW()</f>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M103">
         <v>544.6</v>
@@ -49795,7 +49778,7 @@
       </c>
       <c r="L104" s="11">
         <f ca="1" t="shared" si="35"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M104">
         <v>811.27</v>
@@ -49849,7 +49832,7 @@
       </c>
       <c r="L105" s="11">
         <f ca="1" t="shared" si="35"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M105">
         <v>693.97</v>
@@ -49903,7 +49886,7 @@
       </c>
       <c r="L106" s="11">
         <f ca="1" t="shared" si="35"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M106">
         <v>836.25</v>
@@ -49957,7 +49940,7 @@
       </c>
       <c r="L107" s="11">
         <f ca="1" t="shared" si="35"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M107">
         <v>653.9</v>
@@ -50011,7 +49994,7 @@
       </c>
       <c r="L108" s="11">
         <f ca="1" t="shared" si="35"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M108">
         <v>713.55</v>
@@ -50065,7 +50048,7 @@
       </c>
       <c r="L109" s="11">
         <f ca="1" t="shared" si="35"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M109">
         <v>1154.2</v>
@@ -50119,7 +50102,7 @@
       </c>
       <c r="L110" s="11">
         <f ca="1" t="shared" si="35"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M110">
         <v>400.79</v>
@@ -50173,7 +50156,7 @@
       </c>
       <c r="L111" s="11">
         <f ca="1" t="shared" si="35"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M111">
         <v>748.59</v>
@@ -50227,7 +50210,7 @@
       </c>
       <c r="L112" s="11">
         <f ca="1" t="shared" si="35"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M112">
         <v>627.32</v>
@@ -50281,7 +50264,7 @@
       </c>
       <c r="L113" s="11">
         <f ca="1" t="shared" ref="L113:L122" si="36">NOW()</f>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M113">
         <v>383.66</v>
@@ -50335,7 +50318,7 @@
       </c>
       <c r="L114" s="11">
         <f ca="1" t="shared" si="36"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M114">
         <v>838.51</v>
@@ -50389,7 +50372,7 @@
       </c>
       <c r="L115" s="11">
         <f ca="1" t="shared" si="36"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M115">
         <v>578.26</v>
@@ -50443,7 +50426,7 @@
       </c>
       <c r="L116" s="11">
         <f ca="1" t="shared" si="36"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M116">
         <v>396.65</v>
@@ -50497,7 +50480,7 @@
       </c>
       <c r="L117" s="11">
         <f ca="1" t="shared" si="36"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M117">
         <v>516.62</v>
@@ -50551,7 +50534,7 @@
       </c>
       <c r="L118" s="11">
         <f ca="1" t="shared" si="36"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M118">
         <v>774.44</v>
@@ -50605,7 +50588,7 @@
       </c>
       <c r="L119" s="11">
         <f ca="1" t="shared" si="36"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M119">
         <v>580.64</v>
@@ -50659,7 +50642,7 @@
       </c>
       <c r="L120" s="11">
         <f ca="1" t="shared" si="36"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M120">
         <v>666.98</v>
@@ -50713,7 +50696,7 @@
       </c>
       <c r="L121" s="11">
         <f ca="1" t="shared" si="36"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M121">
         <v>638.99</v>
@@ -50767,7 +50750,7 @@
       </c>
       <c r="L122" s="11">
         <f ca="1" t="shared" si="36"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M122">
         <v>719.51</v>
@@ -50821,7 +50804,7 @@
       </c>
       <c r="L123" s="11">
         <f ca="1" t="shared" ref="L123:L132" si="37">NOW()</f>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M123">
         <v>581.51</v>
@@ -50875,7 +50858,7 @@
       </c>
       <c r="L124" s="11">
         <f ca="1" t="shared" si="37"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M124">
         <v>603.66</v>
@@ -50929,7 +50912,7 @@
       </c>
       <c r="L125" s="11">
         <f ca="1" t="shared" si="37"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M125">
         <v>538.53</v>
@@ -50983,7 +50966,7 @@
       </c>
       <c r="L126" s="11">
         <f ca="1" t="shared" si="37"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M126">
         <v>766.71</v>
@@ -51037,7 +51020,7 @@
       </c>
       <c r="L127" s="11">
         <f ca="1" t="shared" si="37"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M127">
         <v>556.55</v>
@@ -51091,7 +51074,7 @@
       </c>
       <c r="L128" s="11">
         <f ca="1" t="shared" si="37"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M128">
         <v>1057.94</v>
@@ -51145,7 +51128,7 @@
       </c>
       <c r="L129" s="11">
         <f ca="1" t="shared" si="37"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M129">
         <v>877.71</v>
@@ -51199,7 +51182,7 @@
       </c>
       <c r="L130" s="11">
         <f ca="1" t="shared" si="37"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M130">
         <v>723.85</v>
@@ -51253,7 +51236,7 @@
       </c>
       <c r="L131" s="11">
         <f ca="1" t="shared" si="37"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M131">
         <v>193.88</v>
@@ -51307,7 +51290,7 @@
       </c>
       <c r="L132" s="11">
         <f ca="1" t="shared" si="37"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M132">
         <v>752.36</v>
@@ -51361,7 +51344,7 @@
       </c>
       <c r="L133" s="11">
         <f ca="1" t="shared" ref="L133:L142" si="44">NOW()</f>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M133">
         <v>713.17</v>
@@ -51415,7 +51398,7 @@
       </c>
       <c r="L134" s="11">
         <f ca="1" t="shared" si="44"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M134">
         <v>584.89</v>
@@ -51469,7 +51452,7 @@
       </c>
       <c r="L135" s="11">
         <f ca="1" t="shared" si="44"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M135">
         <v>795.78</v>
@@ -51523,7 +51506,7 @@
       </c>
       <c r="L136" s="11">
         <f ca="1" t="shared" si="44"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M136">
         <v>715.64</v>
@@ -51577,7 +51560,7 @@
       </c>
       <c r="L137" s="11">
         <f ca="1" t="shared" si="44"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M137">
         <v>477.41</v>
@@ -51631,7 +51614,7 @@
       </c>
       <c r="L138" s="11">
         <f ca="1" t="shared" si="44"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M138">
         <v>590.54</v>
@@ -51685,7 +51668,7 @@
       </c>
       <c r="L139" s="11">
         <f ca="1" t="shared" si="44"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M139">
         <v>390.2</v>
@@ -51739,7 +51722,7 @@
       </c>
       <c r="L140" s="11">
         <f ca="1" t="shared" si="44"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M140">
         <v>538.03</v>
@@ -51793,7 +51776,7 @@
       </c>
       <c r="L141" s="11">
         <f ca="1" t="shared" si="44"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M141">
         <v>1006.31</v>
@@ -51847,7 +51830,7 @@
       </c>
       <c r="L142" s="11">
         <f ca="1" t="shared" si="44"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M142">
         <v>1172.26</v>
@@ -51901,7 +51884,7 @@
       </c>
       <c r="L143" s="11">
         <f ca="1" t="shared" ref="L143:L152" si="45">NOW()</f>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M143">
         <v>738.76</v>
@@ -51955,7 +51938,7 @@
       </c>
       <c r="L144" s="11">
         <f ca="1" t="shared" si="45"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M144">
         <v>929.34</v>
@@ -52009,7 +51992,7 @@
       </c>
       <c r="L145" s="11">
         <f ca="1" t="shared" si="45"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M145">
         <v>222.26</v>
@@ -52063,7 +52046,7 @@
       </c>
       <c r="L146" s="11">
         <f ca="1" t="shared" si="45"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M146">
         <v>913.92</v>
@@ -52117,7 +52100,7 @@
       </c>
       <c r="L147" s="11">
         <f ca="1" t="shared" si="45"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M147">
         <v>202</v>
@@ -52171,7 +52154,7 @@
       </c>
       <c r="L148" s="11">
         <f ca="1" t="shared" si="45"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M148">
         <v>866.43</v>
@@ -52225,7 +52208,7 @@
       </c>
       <c r="L149" s="11">
         <f ca="1" t="shared" si="45"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M149">
         <v>347.87</v>
@@ -52279,7 +52262,7 @@
       </c>
       <c r="L150" s="11">
         <f ca="1" t="shared" si="45"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M150">
         <v>198.03</v>
@@ -52333,7 +52316,7 @@
       </c>
       <c r="L151" s="11">
         <f ca="1" t="shared" si="45"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M151">
         <v>566.16</v>
@@ -52387,7 +52370,7 @@
       </c>
       <c r="L152" s="11">
         <f ca="1" t="shared" si="45"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M152">
         <v>443.3</v>
@@ -52441,7 +52424,7 @@
       </c>
       <c r="L153" s="11">
         <f ca="1" t="shared" ref="L153:L162" si="46">NOW()</f>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M153">
         <v>456.87</v>
@@ -52495,7 +52478,7 @@
       </c>
       <c r="L154" s="11">
         <f ca="1" t="shared" si="46"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M154">
         <v>575.51</v>
@@ -52549,7 +52532,7 @@
       </c>
       <c r="L155" s="11">
         <f ca="1" t="shared" si="46"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M155">
         <v>614.87</v>
@@ -52603,7 +52586,7 @@
       </c>
       <c r="L156" s="11">
         <f ca="1" t="shared" si="46"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M156">
         <v>722.37</v>
@@ -52657,7 +52640,7 @@
       </c>
       <c r="L157" s="11">
         <f ca="1" t="shared" si="46"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M157">
         <v>1344.97</v>
@@ -52711,7 +52694,7 @@
       </c>
       <c r="L158" s="11">
         <f ca="1" t="shared" si="46"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M158">
         <v>199.38</v>
@@ -52765,7 +52748,7 @@
       </c>
       <c r="L159" s="11">
         <f ca="1" t="shared" si="46"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M159">
         <v>591.98</v>
@@ -52819,7 +52802,7 @@
       </c>
       <c r="L160" s="11">
         <f ca="1" t="shared" si="46"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M160">
         <v>687.89</v>
@@ -52873,7 +52856,7 @@
       </c>
       <c r="L161" s="11">
         <f ca="1" t="shared" si="46"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M161">
         <v>671</v>
@@ -52927,7 +52910,7 @@
       </c>
       <c r="L162" s="11">
         <f ca="1" t="shared" si="46"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M162">
         <v>973.57</v>
@@ -52961,7 +52944,7 @@
         <v>11</v>
       </c>
       <c r="G163" s="5">
-        <f t="shared" ref="G163:G194" si="47">IF(AND(N163&gt;300,N163&lt;=500),0.05,IF(AND(N163&gt;500,N163&lt;=800),0.1,IF(AND(N163&gt;800,N163&lt;=1000),0.12,IF(N163&gt;1000,0.15,0))))</f>
+        <f t="shared" ref="G163:G201" si="47">IF(AND(N163&gt;300,N163&lt;=500),0.05,IF(AND(N163&gt;500,N163&lt;=800),0.1,IF(AND(N163&gt;800,N163&lt;=1000),0.12,IF(N163&gt;1000,0.15,0))))</f>
         <v>0</v>
       </c>
       <c r="H163" s="6">
@@ -52981,7 +52964,7 @@
       </c>
       <c r="L163" s="11">
         <f ca="1" t="shared" ref="L163:L172" si="51">NOW()</f>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M163">
         <v>435.64</v>
@@ -53035,7 +53018,7 @@
       </c>
       <c r="L164" s="11">
         <f ca="1" t="shared" si="51"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M164">
         <v>321.84</v>
@@ -53089,7 +53072,7 @@
       </c>
       <c r="L165" s="11">
         <f ca="1" t="shared" si="51"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M165">
         <v>665.99</v>
@@ -53143,7 +53126,7 @@
       </c>
       <c r="L166" s="11">
         <f ca="1" t="shared" si="51"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M166">
         <v>702.77</v>
@@ -53197,7 +53180,7 @@
       </c>
       <c r="L167" s="11">
         <f ca="1" t="shared" si="51"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M167">
         <v>492.21</v>
@@ -53251,7 +53234,7 @@
       </c>
       <c r="L168" s="11">
         <f ca="1" t="shared" si="51"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M168">
         <v>408.03</v>
@@ -53305,7 +53288,7 @@
       </c>
       <c r="L169" s="11">
         <f ca="1" t="shared" si="51"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M169">
         <v>780.2</v>
@@ -53359,7 +53342,7 @@
       </c>
       <c r="L170" s="11">
         <f ca="1" t="shared" si="51"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M170">
         <v>341.13</v>
@@ -53413,7 +53396,7 @@
       </c>
       <c r="L171" s="11">
         <f ca="1" t="shared" si="51"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M171">
         <v>892.18</v>
@@ -53467,7 +53450,7 @@
       </c>
       <c r="L172" s="11">
         <f ca="1" t="shared" si="51"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M172">
         <v>422.92</v>
@@ -53521,7 +53504,7 @@
       </c>
       <c r="L173" s="11">
         <f ca="1" t="shared" ref="L173:L182" si="54">NOW()</f>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M173">
         <v>772.35</v>
@@ -53575,7 +53558,7 @@
       </c>
       <c r="L174" s="11">
         <f ca="1" t="shared" si="54"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M174">
         <v>809.08</v>
@@ -53629,7 +53612,7 @@
       </c>
       <c r="L175" s="11">
         <f ca="1" t="shared" si="54"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M175">
         <v>478.91</v>
@@ -53683,7 +53666,7 @@
       </c>
       <c r="L176" s="11">
         <f ca="1" t="shared" si="54"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M176">
         <v>1035.66</v>
@@ -53737,7 +53720,7 @@
       </c>
       <c r="L177" s="11">
         <f ca="1" t="shared" si="54"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M177">
         <v>669.52</v>
@@ -53791,7 +53774,7 @@
       </c>
       <c r="L178" s="11">
         <f ca="1" t="shared" si="54"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M178">
         <v>496.18</v>
@@ -53845,7 +53828,7 @@
       </c>
       <c r="L179" s="11">
         <f ca="1" t="shared" si="54"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M179">
         <v>562.23</v>
@@ -53899,7 +53882,7 @@
       </c>
       <c r="L180" s="11">
         <f ca="1" t="shared" si="54"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M180">
         <v>659.81</v>
@@ -53953,7 +53936,7 @@
       </c>
       <c r="L181" s="11">
         <f ca="1" t="shared" si="54"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M181">
         <v>454.73</v>
@@ -54007,7 +53990,7 @@
       </c>
       <c r="L182" s="11">
         <f ca="1" t="shared" si="54"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M182">
         <v>339.44</v>
@@ -54061,7 +54044,7 @@
       </c>
       <c r="L183" s="11">
         <f ca="1" t="shared" ref="L183:L192" si="55">NOW()</f>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M183">
         <v>659.8</v>
@@ -54115,7 +54098,7 @@
       </c>
       <c r="L184" s="11">
         <f ca="1" t="shared" si="55"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M184">
         <v>251.19</v>
@@ -54169,7 +54152,7 @@
       </c>
       <c r="L185" s="11">
         <f ca="1" t="shared" si="55"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M185">
         <v>454.11</v>
@@ -54223,7 +54206,7 @@
       </c>
       <c r="L186" s="11">
         <f ca="1" t="shared" si="55"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M186">
         <v>709.15</v>
@@ -54277,7 +54260,7 @@
       </c>
       <c r="L187" s="11">
         <f ca="1" t="shared" si="55"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M187">
         <v>746.75</v>
@@ -54331,7 +54314,7 @@
       </c>
       <c r="L188" s="11">
         <f ca="1" t="shared" si="55"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M188">
         <v>379.19</v>
@@ -54385,7 +54368,7 @@
       </c>
       <c r="L189" s="11">
         <f ca="1" t="shared" si="55"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M189">
         <v>341.12</v>
@@ -54439,7 +54422,7 @@
       </c>
       <c r="L190" s="11">
         <f ca="1" t="shared" si="55"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M190">
         <v>366.83</v>
@@ -54493,7 +54476,7 @@
       </c>
       <c r="L191" s="11">
         <f ca="1" t="shared" si="55"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M191">
         <v>852.66</v>
@@ -54547,7 +54530,7 @@
       </c>
       <c r="L192" s="11">
         <f ca="1" t="shared" si="55"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M192">
         <v>381.07</v>
@@ -54601,7 +54584,7 @@
       </c>
       <c r="L193" s="11">
         <f ca="1" t="shared" ref="L193:L201" si="56">NOW()</f>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M193">
         <v>495.47</v>
@@ -54655,7 +54638,7 @@
       </c>
       <c r="L194" s="11">
         <f ca="1" t="shared" si="56"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M194">
         <v>764.89</v>
@@ -54689,7 +54672,7 @@
         <v>17</v>
       </c>
       <c r="G195" s="5">
-        <f>IF(AND(N195&gt;300,N195&lt;=500),0.05,IF(AND(N195&gt;500,N195&lt;=800),0.1,IF(AND(N195&gt;800,N195&lt;=1000),0.12,IF(N195&gt;1000,0.15,0))))</f>
+        <f t="shared" si="47"/>
         <v>0.05</v>
       </c>
       <c r="H195" s="6">
@@ -54709,7 +54692,7 @@
       </c>
       <c r="L195" s="11">
         <f ca="1" t="shared" si="56"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M195">
         <v>748.97</v>
@@ -54743,7 +54726,7 @@
         <v>8</v>
       </c>
       <c r="G196" s="5">
-        <f>IF(AND(N196&gt;300,N196&lt;=500),0.05,IF(AND(N196&gt;500,N196&lt;=800),0.1,IF(AND(N196&gt;800,N196&lt;=1000),0.12,IF(N196&gt;1000,0.15,0))))</f>
+        <f t="shared" si="47"/>
         <v>0.05</v>
       </c>
       <c r="H196" s="6">
@@ -54763,7 +54746,7 @@
       </c>
       <c r="L196" s="11">
         <f ca="1" t="shared" si="56"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M196">
         <v>537.21</v>
@@ -54797,7 +54780,7 @@
         <v>8</v>
       </c>
       <c r="G197" s="5">
-        <f>IF(AND(N197&gt;300,N197&lt;=500),0.05,IF(AND(N197&gt;500,N197&lt;=800),0.1,IF(AND(N197&gt;800,N197&lt;=1000),0.12,IF(N197&gt;1000,0.15,0))))</f>
+        <f t="shared" si="47"/>
         <v>0.1</v>
       </c>
       <c r="H197" s="6">
@@ -54817,7 +54800,7 @@
       </c>
       <c r="L197" s="11">
         <f ca="1" t="shared" si="56"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M197">
         <v>879.21</v>
@@ -54851,7 +54834,7 @@
         <v>3</v>
       </c>
       <c r="G198" s="5">
-        <f>IF(AND(N198&gt;300,N198&lt;=500),0.05,IF(AND(N198&gt;500,N198&lt;=800),0.1,IF(AND(N198&gt;800,N198&lt;=1000),0.12,IF(N198&gt;1000,0.15,0))))</f>
+        <f t="shared" si="47"/>
         <v>0.05</v>
       </c>
       <c r="H198" s="6">
@@ -54871,7 +54854,7 @@
       </c>
       <c r="L198" s="11">
         <f ca="1" t="shared" si="56"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M198">
         <v>407.44</v>
@@ -54905,7 +54888,7 @@
         <v>17</v>
       </c>
       <c r="G199" s="5">
-        <f>IF(AND(N199&gt;300,N199&lt;=500),0.05,IF(AND(N199&gt;500,N199&lt;=800),0.1,IF(AND(N199&gt;800,N199&lt;=1000),0.12,IF(N199&gt;1000,0.15,0))))</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="H199" s="6">
@@ -54925,7 +54908,7 @@
       </c>
       <c r="L199" s="11">
         <f ca="1" t="shared" si="56"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M199">
         <v>299.99</v>
@@ -54959,7 +54942,7 @@
         <v>8</v>
       </c>
       <c r="G200" s="5">
-        <f>IF(AND(N200&gt;300,N200&lt;=500),0.05,IF(AND(N200&gt;500,N200&lt;=800),0.1,IF(AND(N200&gt;800,N200&lt;=1000),0.12,IF(N200&gt;1000,0.15,0))))</f>
+        <f t="shared" si="47"/>
         <v>0.05</v>
       </c>
       <c r="H200" s="6">
@@ -54979,7 +54962,7 @@
       </c>
       <c r="L200" s="11">
         <f ca="1" t="shared" si="56"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M200">
         <v>618.52</v>
@@ -55013,7 +54996,7 @@
         <v>2</v>
       </c>
       <c r="G201" s="5">
-        <f>IF(AND(N201&gt;300,N201&lt;=500),0.05,IF(AND(N201&gt;500,N201&lt;=800),0.1,IF(AND(N201&gt;800,N201&lt;=1000),0.12,IF(N201&gt;1000,0.15,0))))</f>
+        <f t="shared" si="47"/>
         <v>0.05</v>
       </c>
       <c r="H201" s="6">
@@ -55033,7 +55016,7 @@
       </c>
       <c r="L201" s="11">
         <f ca="1" t="shared" si="56"/>
-        <v>45972.4111111111</v>
+        <v>45972.5468287037</v>
       </c>
       <c r="M201">
         <v>487.37</v>
@@ -55925,7 +55908,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{474e03f5-b8a5-49e2-b139-b6765e099f75}">
+          <x14:cfRule type="iconSet" priority="2" id="{9794e595-f900-490a-a27f-3dce7d69fcad}">
             <x14:iconSet iconSet="3Triangles">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -61824,8 +61807,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="18" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="11.6666666666667"/>
-    <col min="2" max="2" width="12.6666666666667"/>
+    <col min="1" max="1" width="13.8888888888889"/>
+    <col min="2" max="2" width="14.2222222222222"/>
     <col min="3" max="6" width="19.1111111111111"/>
     <col min="7" max="7" width="11.4444444444444"/>
   </cols>
@@ -61843,7 +61826,7 @@
         <v>50</v>
       </c>
       <c r="B4">
-        <v>7685.16</v>
+        <v>43468.33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -61851,7 +61834,7 @@
         <v>26</v>
       </c>
       <c r="B5">
-        <v>4646.71</v>
+        <v>32441.64</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -61859,7 +61842,7 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>7820.03</v>
+        <v>34975.42</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -61867,7 +61850,7 @@
         <v>28</v>
       </c>
       <c r="B7">
-        <v>11392.59</v>
+        <v>40248.79</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -61875,7 +61858,7 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>9176.52</v>
+        <v>44083.58</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -61883,7 +61866,7 @@
         <v>101</v>
       </c>
       <c r="B9">
-        <v>40721.01</v>
+        <v>195217.76</v>
       </c>
     </row>
   </sheetData>
@@ -61903,8 +61886,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="18" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19.7777777777778"/>
-    <col min="2" max="3" width="12.6666666666667"/>
+    <col min="1" max="1" width="22.2222222222222"/>
+    <col min="2" max="2" width="14.2222222222222"/>
+    <col min="3" max="3" width="12.6666666666667"/>
     <col min="4" max="6" width="19.1111111111111"/>
     <col min="7" max="7" width="11.4444444444444"/>
   </cols>
@@ -61922,7 +61906,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>5157.04</v>
+        <v>47002.46</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -61930,7 +61914,7 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>2586.98</v>
+        <v>41927.59</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -61938,7 +61922,7 @@
         <v>29</v>
       </c>
       <c r="B6">
-        <v>4214.03</v>
+        <v>41044</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -61946,7 +61930,7 @@
         <v>37</v>
       </c>
       <c r="B7">
-        <v>4420.07</v>
+        <v>36612.89</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -61954,7 +61938,7 @@
         <v>57</v>
       </c>
       <c r="B8">
-        <v>3809.39</v>
+        <v>28630.82</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -61962,7 +61946,7 @@
         <v>101</v>
       </c>
       <c r="B9">
-        <v>20187.51</v>
+        <v>195217.76</v>
       </c>
     </row>
   </sheetData>
@@ -61974,23 +61958,17 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:C28"/>
+  <dimension ref="A3:C27"/>
   <sheetViews>
     <sheetView zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="B15" sqref="B5 B7 B9 B11 B13 B15 B17 B19 B21 B23 B25 B27"/>
-      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisRow" activeRow="14" activeCol="1" previousRow="14" previousCol="1" click="1" r:id="rId1">
-        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-          <references count="1">
-            <reference field="9" count="0"/>
-          </references>
-        </pivotArea>
-      </pivotSelection>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="18" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="23.2222222222222"/>
-    <col min="3" max="3" width="13.1111111111111"/>
+    <col min="1" max="1" width="23.2222222222222"/>
+    <col min="2" max="2" width="26.4444444444444"/>
+    <col min="3" max="3" width="14.7777777777778"/>
     <col min="4" max="13" width="14.1111111111111"/>
     <col min="14" max="14" width="11.4444444444444"/>
     <col min="15" max="15" width="9.22222222222222"/>
@@ -62183,35 +62161,27 @@
         <v>5039.23</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
-      <c r="B25">
-        <v>14006.36</v>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>114</v>
       </c>
       <c r="C25">
-        <v>5039.23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>114</v>
+        <v>7071.39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26">
+        <v>17655.22</v>
       </c>
       <c r="C26">
         <v>7071.39</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
-      <c r="B27">
-        <v>17655.22</v>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>101</v>
       </c>
       <c r="C27">
-        <v>7071.39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28">
         <v>68286.46</v>
       </c>
     </row>
